--- a/Optimisation5.xlsx
+++ b/Optimisation5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{21936613-6F3E-4168-A74B-BBA6FE86BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFA69C71-38D1-4D88-B06B-258DC2083630}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{21936613-6F3E-4168-A74B-BBA6FE86BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC675F32-E305-462E-A5D0-FB34E278255E}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
+    <workbookView xWindow="1332" yWindow="1128" windowWidth="17280" windowHeight="8904" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Dist</t>
   </si>
   <si>
     <t>Dist2</t>
@@ -437,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8828E3-2CC5-4ED5-B33A-5674B3893062}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B97" sqref="A52:XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>6.14</v>
       </c>
@@ -545,13 +539,10 @@
         <v>2.31643373918403E-2</v>
       </c>
       <c r="P2">
-        <v>0.19057672551322699</v>
-      </c>
-      <c r="Q2">
-        <v>0.193634256648544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.19860611453715199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>9.68</v>
       </c>
@@ -598,13 +589,10 @@
         <v>0.26353515361531599</v>
       </c>
       <c r="P3">
-        <v>0.91937349900683796</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2.58</v>
       </c>
@@ -651,13 +639,10 @@
         <v>0.22084920615380901</v>
       </c>
       <c r="P4">
-        <v>0.35796330239388702</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>8.18</v>
       </c>
@@ -704,13 +689,10 @@
         <v>0.20504569920391599</v>
       </c>
       <c r="P5">
-        <v>0.77869755411868102</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4.7300000000000004</v>
       </c>
@@ -757,13 +739,10 @@
         <v>0.106833659158765</v>
       </c>
       <c r="P6">
-        <v>0.769928685370733</v>
-      </c>
-      <c r="Q6">
-        <v>0.77426794664359599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.84951740855458902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1.74</v>
       </c>
@@ -810,13 +789,10 @@
         <v>0.126281297856109</v>
       </c>
       <c r="P7">
-        <v>0.70419799803835703</v>
-      </c>
-      <c r="Q7">
-        <v>0.73677368054155101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6.01</v>
       </c>
@@ -863,13 +839,10 @@
         <v>0.19837129910280199</v>
       </c>
       <c r="P8">
-        <v>0.13717674140582001</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2.4410369523997502</v>
       </c>
@@ -916,13 +889,10 @@
         <v>0.18033643883276901</v>
       </c>
       <c r="P9">
-        <v>0.285997522282811</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2.7931382085114098</v>
       </c>
@@ -969,13 +939,10 @@
         <v>0.15072657824132099</v>
       </c>
       <c r="P10">
-        <v>0.471304637973747</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>8.5666687782385704</v>
       </c>
@@ -1022,13 +989,10 @@
         <v>0.21757721209113601</v>
       </c>
       <c r="P11">
-        <v>0.12385250964391301</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>4.2610007227134998</v>
       </c>
@@ -1075,13 +1039,10 @@
         <v>0.19298144356302499</v>
       </c>
       <c r="P12">
-        <v>0.27285930187663698</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2.8939514647726901</v>
       </c>
@@ -1128,13 +1089,10 @@
         <v>2.22413452388634E-2</v>
       </c>
       <c r="P13">
-        <v>8.18140899700944E-2</v>
-      </c>
-      <c r="Q13">
-        <v>8.2280191532384306E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>7.3774194054757603E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>4.4558019790447299</v>
       </c>
@@ -1181,13 +1139,10 @@
         <v>8.3798139624195397E-2</v>
       </c>
       <c r="P14">
-        <v>0.816273327512271</v>
-      </c>
-      <c r="Q14">
-        <v>0.82384743536176297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90509780238006698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1234,13 +1189,10 @@
         <v>8.6082026403852305E-2</v>
       </c>
       <c r="P15">
-        <v>1.6974984151442499E-2</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1287,13 +1239,10 @@
         <v>8.7459392870703298E-2</v>
       </c>
       <c r="P16">
-        <v>7.7815628967328396E-3</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1340,13 +1289,10 @@
         <v>0.22562222601746801</v>
       </c>
       <c r="P17">
-        <v>0.34033322111095499</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1.35210346565518</v>
       </c>
@@ -1393,13 +1339,10 @@
         <v>0.17428274004182001</v>
       </c>
       <c r="P18">
-        <v>0.216811448154618</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1.1772626457297299</v>
       </c>
@@ -1446,13 +1389,10 @@
         <v>0.20350825892433599</v>
       </c>
       <c r="P19">
-        <v>0.12486555621340099</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1499,13 +1439,10 @@
         <v>0.18895604400843699</v>
       </c>
       <c r="P20">
-        <v>5.6403609778328097E-2</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2.9322511778954099</v>
       </c>
@@ -1552,13 +1489,10 @@
         <v>0.16536218633409699</v>
       </c>
       <c r="P21">
-        <v>0.21370368873828399</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1.2196391708935801</v>
       </c>
@@ -1605,13 +1539,10 @@
         <v>0.116064362154984</v>
       </c>
       <c r="P22">
-        <v>7.6494095664215195E-2</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>9.6464488768999104</v>
       </c>
@@ -1658,13 +1589,10 @@
         <v>7.20911666198982E-2</v>
       </c>
       <c r="P23">
-        <v>0.30992259151624901</v>
-      </c>
-      <c r="Q23">
-        <v>0.30999495551233902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.32905065190261501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>3.4966871952906202</v>
       </c>
@@ -1711,13 +1639,10 @@
         <v>0.18947675788221599</v>
       </c>
       <c r="P24">
-        <v>0.22932085408661401</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1.3647290012776001</v>
       </c>
@@ -1764,13 +1689,10 @@
         <v>0.19080140754387601</v>
       </c>
       <c r="P25">
-        <v>0.76666701313332297</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>2.1034121908897001</v>
       </c>
@@ -1817,13 +1739,10 @@
         <v>0.18019474020562701</v>
       </c>
       <c r="P26">
-        <v>0.234950749821216</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>3.2096798593028502</v>
       </c>
@@ -1870,13 +1789,10 @@
         <v>9.1481107247065499E-2</v>
       </c>
       <c r="P27">
-        <v>0.19823414208333801</v>
-      </c>
-      <c r="Q27">
-        <v>0.198323038401926</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.203862407878458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2.0691829046361399</v>
       </c>
@@ -1923,13 +1839,10 @@
         <v>0.10069114047896099</v>
       </c>
       <c r="P28">
-        <v>6.53463919914202E-2</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1.3062761781026699</v>
       </c>
@@ -1976,13 +1889,10 @@
         <v>0.118392147904347</v>
       </c>
       <c r="P29">
-        <v>8.2082927256679594E-2</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1.9994353519123</v>
       </c>
@@ -2029,13 +1939,10 @@
         <v>7.4942901991135999E-2</v>
       </c>
       <c r="P30">
-        <v>0.39301097711620098</v>
-      </c>
-      <c r="Q30">
-        <v>0.39318540447996397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.42231014359327101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1.58194320840147</v>
       </c>
@@ -2082,13 +1989,10 @@
         <v>6.8819809991721395E-2</v>
       </c>
       <c r="P31">
-        <v>0.20756188819933699</v>
-      </c>
-      <c r="Q31">
-        <v>0.20756188819933699</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.21421949149328801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1.13208181043708</v>
       </c>
@@ -2135,13 +2039,10 @@
         <v>1.24762266406641E-2</v>
       </c>
       <c r="P32">
-        <v>1.5973021740796799E-2</v>
-      </c>
-      <c r="Q32">
-        <v>1.6471251183474901E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1.84279202547545</v>
       </c>
@@ -2188,13 +2089,10 @@
         <v>2.3064951078961001E-2</v>
       </c>
       <c r="P33">
-        <v>3.3916241623738803E-2</v>
-      </c>
-      <c r="Q33">
-        <v>3.7518768663324799E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>2.3595025701626901E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7.0812560755588096</v>
       </c>
@@ -2241,13 +2139,10 @@
         <v>7.04598618565562E-2</v>
       </c>
       <c r="P34">
-        <v>0.36625750891664899</v>
-      </c>
-      <c r="Q34">
-        <v>0.36650656595387199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.392402204031498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2294,13 +2189,10 @@
         <v>0.18471536060575999</v>
       </c>
       <c r="P35">
-        <v>0.24378286850018199</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>4.9822385444849102</v>
       </c>
@@ -2347,13 +2239,10 @@
         <v>5.6563191510657501E-2</v>
       </c>
       <c r="P36">
-        <v>0.36115948282814803</v>
-      </c>
-      <c r="Q36">
-        <v>0.362556230094215</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.38797373515254802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>1.2068164143445399</v>
       </c>
@@ -2400,13 +2289,10 @@
         <v>3.8237966448148197E-2</v>
       </c>
       <c r="P37">
-        <v>0.32036876873671299</v>
-      </c>
-      <c r="Q37">
-        <v>0.32493086339958199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.345794342972786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>4.4940197850615498</v>
       </c>
@@ -2453,13 +2339,10 @@
         <v>9.7998690406978395E-2</v>
       </c>
       <c r="P38">
-        <v>0.156204325838839</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>10</v>
       </c>
@@ -2506,13 +2389,10 @@
         <v>0.22926435158256001</v>
       </c>
       <c r="P39">
-        <v>0.52446508296388605</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>1.35422706520576</v>
       </c>
@@ -2559,13 +2439,10 @@
         <v>2.6770764411672799E-2</v>
       </c>
       <c r="P40">
-        <v>8.3474343077476795E-2</v>
-      </c>
-      <c r="Q40">
-        <v>8.3523680596852098E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>7.5168190114573194E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>2.6653052852230199</v>
       </c>
@@ -2612,13 +2489,10 @@
         <v>2.0694614165261999E-2</v>
       </c>
       <c r="P41">
-        <v>0.14610033852814799</v>
-      </c>
-      <c r="Q41">
-        <v>0.150026819218681</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.14972060545396601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>7.1218063902828002</v>
       </c>
@@ -2665,13 +2539,10 @@
         <v>0.19713681913598899</v>
       </c>
       <c r="P42">
-        <v>0.40026071919834</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>1.33345790075615</v>
       </c>
@@ -2718,13 +2589,10 @@
         <v>1.7315069086334602E-2</v>
       </c>
       <c r="P43">
-        <v>4.9823037756313797E-2</v>
-      </c>
-      <c r="Q43">
-        <v>5.0308083635127801E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>3.7932308744854697E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>3.8207563344533999</v>
       </c>
@@ -2771,13 +2639,10 @@
         <v>0.124154737324636</v>
       </c>
       <c r="P44">
-        <v>0.60701721881580495</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2.2010776621111798</v>
       </c>
@@ -2824,13 +2689,10 @@
         <v>1.6067629958717401E-2</v>
       </c>
       <c r="P45">
-        <v>7.5470292175002701E-2</v>
-      </c>
-      <c r="Q45">
-        <v>7.5493140247605797E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>6.6165664941719896E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2877,13 +2739,10 @@
         <v>1.6719781473082802E-2</v>
       </c>
       <c r="P46">
-        <v>8.4292375624317795E-2</v>
-      </c>
-      <c r="Q46">
-        <v>8.4971698046397107E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>7.6791469865789802E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2930,13 +2789,10 @@
         <v>0.138692848908544</v>
       </c>
       <c r="P47">
-        <v>0.145384852818568</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>2.0182567160546201</v>
       </c>
@@ -2983,13 +2839,10 @@
         <v>1.9373259134136001E-2</v>
       </c>
       <c r="P48">
-        <v>0.13086396828652</v>
-      </c>
-      <c r="Q48">
-        <v>0.13119036096924599</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.12860425684190199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>3.3880679038450299</v>
       </c>
@@ -3036,13 +2889,10 @@
         <v>2.0202327683790901E-2</v>
       </c>
       <c r="P49">
-        <v>0.14220153954220099</v>
-      </c>
-      <c r="Q49">
-        <v>0.14358363576706201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.142497564575782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>1.50043491920691</v>
       </c>
@@ -3089,13 +2939,10 @@
         <v>2.5318438754806299E-2</v>
       </c>
       <c r="P50">
-        <v>6.4976905879722005E-2</v>
-      </c>
-      <c r="Q50">
-        <v>6.5437571426555902E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>5.4893009864735297E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>1.99780469901582</v>
       </c>
@@ -3142,10 +2989,7 @@
         <v>1.8533715030105698E-2</v>
       </c>
       <c r="P51">
-        <v>0.114226521891386</v>
-      </c>
-      <c r="Q51">
-        <v>0.115079446319388</v>
+        <v>0.11054334084057001</v>
       </c>
     </row>
   </sheetData>
